--- a/examples/goods and services/profile.xlsx
+++ b/examples/goods and services/profile.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>N9330AAC</t>
+          <t>N8465S</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Oils and Greases, Cutting, Lubricating, and Hydraulic</t>
+          <t>Physical Properties Testing Equipment</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Services d'ingÌ©nierie</t>
+          <t>HygromÌ¬tres</t>
         </is>
       </c>
       <c r="R5" t="n">
